--- a/database/SIFT_knn.xlsx
+++ b/database/SIFT_knn.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="26">
   <si>
     <t>image type</t>
   </si>
@@ -78,6 +78,39 @@
   </si>
   <si>
     <t>sift_knn_resultats.csv</t>
+  </si>
+  <si>
+    <t>images/distances</t>
+  </si>
+  <si>
+    <t>condame_orig</t>
+  </si>
+  <si>
+    <t>condame_45</t>
+  </si>
+  <si>
+    <t>condame_90</t>
+  </si>
+  <si>
+    <t>condame_cropped</t>
+  </si>
+  <si>
+    <t>life_orig</t>
+  </si>
+  <si>
+    <t>malcomx_orig</t>
+  </si>
+  <si>
+    <t>prayer_45</t>
+  </si>
+  <si>
+    <t>prayer_blurred</t>
+  </si>
+  <si>
+    <t>rose_90</t>
+  </si>
+  <si>
+    <t>rose_blurred</t>
   </si>
 </sst>
 </file>
@@ -413,10 +446,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C326"/>
+  <dimension ref="A1:O326"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="O23" sqref="O23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -426,7 +459,7 @@
     <col min="3" max="3" width="18.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:15">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -434,7 +467,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:15">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -445,7 +478,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:15">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -456,7 +489,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:15">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -467,7 +500,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:15">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -477,8 +510,41 @@
       <c r="C5" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="E5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5">
+        <v>0.5</v>
+      </c>
+      <c r="G5">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="H5">
+        <v>0.6</v>
+      </c>
+      <c r="I5">
+        <v>0.65</v>
+      </c>
+      <c r="J5">
+        <v>0.7</v>
+      </c>
+      <c r="K5">
+        <v>0.75</v>
+      </c>
+      <c r="L5">
+        <v>0.8</v>
+      </c>
+      <c r="M5">
+        <v>0.85</v>
+      </c>
+      <c r="N5">
+        <v>0.9</v>
+      </c>
+      <c r="O5">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -488,8 +554,41 @@
       <c r="C6" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="E6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6">
+        <v>100</v>
+      </c>
+      <c r="G6">
+        <v>100</v>
+      </c>
+      <c r="H6">
+        <v>100</v>
+      </c>
+      <c r="I6">
+        <v>100</v>
+      </c>
+      <c r="J6">
+        <v>100</v>
+      </c>
+      <c r="K6">
+        <v>100</v>
+      </c>
+      <c r="L6">
+        <v>100</v>
+      </c>
+      <c r="M6">
+        <v>100</v>
+      </c>
+      <c r="N6">
+        <v>100</v>
+      </c>
+      <c r="O6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -499,8 +598,41 @@
       <c r="C7" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="E7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7">
+        <v>56</v>
+      </c>
+      <c r="G7">
+        <v>59</v>
+      </c>
+      <c r="H7">
+        <v>63</v>
+      </c>
+      <c r="I7">
+        <v>65</v>
+      </c>
+      <c r="J7">
+        <v>68</v>
+      </c>
+      <c r="K7">
+        <v>70</v>
+      </c>
+      <c r="L7">
+        <v>73</v>
+      </c>
+      <c r="M7">
+        <v>77</v>
+      </c>
+      <c r="N7">
+        <v>81</v>
+      </c>
+      <c r="O7">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -510,8 +642,41 @@
       <c r="C8" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="E8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8">
+        <v>82</v>
+      </c>
+      <c r="G8">
+        <v>83</v>
+      </c>
+      <c r="H8">
+        <v>85</v>
+      </c>
+      <c r="I8">
+        <v>86</v>
+      </c>
+      <c r="J8">
+        <v>86</v>
+      </c>
+      <c r="K8">
+        <v>88</v>
+      </c>
+      <c r="L8">
+        <v>89</v>
+      </c>
+      <c r="M8">
+        <v>90</v>
+      </c>
+      <c r="N8">
+        <v>92</v>
+      </c>
+      <c r="O8">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -521,8 +686,41 @@
       <c r="C9">
         <v>0.171999931335449</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="E9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9">
+        <v>88</v>
+      </c>
+      <c r="G9">
+        <v>88</v>
+      </c>
+      <c r="H9">
+        <v>89</v>
+      </c>
+      <c r="I9">
+        <v>89</v>
+      </c>
+      <c r="J9">
+        <v>89</v>
+      </c>
+      <c r="K9">
+        <v>90</v>
+      </c>
+      <c r="L9">
+        <v>90</v>
+      </c>
+      <c r="M9">
+        <v>92</v>
+      </c>
+      <c r="N9">
+        <v>93</v>
+      </c>
+      <c r="O9">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -532,8 +730,41 @@
       <c r="C10">
         <v>0.35899996757507302</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
+      <c r="E10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>2</v>
+      </c>
+      <c r="I10">
+        <v>2</v>
+      </c>
+      <c r="J10">
+        <v>4</v>
+      </c>
+      <c r="K10">
+        <v>6</v>
+      </c>
+      <c r="L10">
+        <v>10</v>
+      </c>
+      <c r="M10">
+        <v>15</v>
+      </c>
+      <c r="N10">
+        <v>26</v>
+      </c>
+      <c r="O10">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -543,8 +774,41 @@
       <c r="C11">
         <v>0.18799996376037501</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="E11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>4</v>
+      </c>
+      <c r="M11">
+        <v>8</v>
+      </c>
+      <c r="N11">
+        <v>20</v>
+      </c>
+      <c r="O11">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -554,8 +818,41 @@
       <c r="C12">
         <v>0.171999931335449</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
+      <c r="E12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>5</v>
+      </c>
+      <c r="M12">
+        <v>11</v>
+      </c>
+      <c r="N12">
+        <v>23</v>
+      </c>
+      <c r="O12">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -565,8 +862,41 @@
       <c r="C13">
         <v>9.4000101089477497E-2</v>
       </c>
-    </row>
-    <row r="14" spans="1:3">
+      <c r="E13" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>2</v>
+      </c>
+      <c r="I13">
+        <v>2</v>
+      </c>
+      <c r="J13">
+        <v>3</v>
+      </c>
+      <c r="K13">
+        <v>4</v>
+      </c>
+      <c r="L13">
+        <v>6</v>
+      </c>
+      <c r="M13">
+        <v>10</v>
+      </c>
+      <c r="N13">
+        <v>20</v>
+      </c>
+      <c r="O13">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -576,8 +906,41 @@
       <c r="C14">
         <v>0.61199998855590798</v>
       </c>
-    </row>
-    <row r="15" spans="1:3">
+      <c r="E14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>6</v>
+      </c>
+      <c r="M14">
+        <v>13</v>
+      </c>
+      <c r="N14">
+        <v>26</v>
+      </c>
+      <c r="O14">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" t="s">
         <v>9</v>
       </c>
@@ -587,8 +950,41 @@
       <c r="C15">
         <v>0.98299980163574197</v>
       </c>
-    </row>
-    <row r="16" spans="1:3">
+      <c r="E15" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>5</v>
+      </c>
+      <c r="M15">
+        <v>12</v>
+      </c>
+      <c r="N15">
+        <v>26</v>
+      </c>
+      <c r="O15">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" t="s">
         <v>10</v>
       </c>

--- a/database/SIFT_knn.xlsx
+++ b/database/SIFT_knn.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="39">
   <si>
     <t>image type</t>
   </si>
@@ -112,15 +112,62 @@
   <si>
     <t>rose_blurred</t>
   </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>Colonne1</t>
+  </si>
+  <si>
+    <t>0.5</t>
+  </si>
+  <si>
+    <t>0.55</t>
+  </si>
+  <si>
+    <t>0.6</t>
+  </si>
+  <si>
+    <t>0.65</t>
+  </si>
+  <si>
+    <t>0.7</t>
+  </si>
+  <si>
+    <t>0.75</t>
+  </si>
+  <si>
+    <t>0.8</t>
+  </si>
+  <si>
+    <t>0.85</t>
+  </si>
+  <si>
+    <t>0.9</t>
+  </si>
+  <si>
+    <t>0.95</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -146,8 +193,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -159,6 +209,27 @@
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="sift_knn_resultats" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="G18:R33" totalsRowShown="0">
+  <autoFilter ref="G18:R33"/>
+  <tableColumns count="12">
+    <tableColumn id="1" name="Colonne1"/>
+    <tableColumn id="2" name="0.5"/>
+    <tableColumn id="3" name="0.55"/>
+    <tableColumn id="4" name="0.6"/>
+    <tableColumn id="5" name="0.65"/>
+    <tableColumn id="6" name="0.7"/>
+    <tableColumn id="7" name="0.75"/>
+    <tableColumn id="8" name="0.8"/>
+    <tableColumn id="9" name="0.85"/>
+    <tableColumn id="10" name="0.9"/>
+    <tableColumn id="11" name="0.95"/>
+    <tableColumn id="12" name="1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -446,10 +517,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O326"/>
+  <dimension ref="A1:R326"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="O23" sqref="O23"/>
+    <sheetView tabSelected="1" topLeftCell="C19" workbookViewId="0">
+      <selection activeCell="O34" sqref="O34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -457,9 +528,11 @@
     <col min="1" max="1" width="25.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="15" width="11.5703125" customWidth="1"/>
+    <col min="16" max="18" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:16">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -467,7 +540,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:16">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -478,7 +551,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:16">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -489,7 +562,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:16">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -500,7 +573,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:16">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -543,8 +616,11 @@
       <c r="O5">
         <v>0.95</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -587,8 +663,11 @@
       <c r="O6">
         <v>100</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -631,8 +710,11 @@
       <c r="O7">
         <v>89</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -675,8 +757,11 @@
       <c r="O8">
         <v>94</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -719,8 +804,11 @@
       <c r="O9">
         <v>95</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -763,8 +851,11 @@
       <c r="O10">
         <v>49</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -807,8 +898,11 @@
       <c r="O11">
         <v>46</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -851,8 +945,11 @@
       <c r="O12">
         <v>44</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -895,8 +992,11 @@
       <c r="O13">
         <v>43</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -939,8 +1039,11 @@
       <c r="O14">
         <v>48</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
       <c r="A15" t="s">
         <v>9</v>
       </c>
@@ -983,8 +1086,11 @@
       <c r="O15">
         <v>49</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
       <c r="A16" t="s">
         <v>10</v>
       </c>
@@ -994,8 +1100,55 @@
       <c r="C16">
         <v>7.8000068664550698E-2</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="E16" t="s">
+        <v>26</v>
+      </c>
+      <c r="F16">
+        <f>AVERAGE(F6:F15)</f>
+        <v>32.6</v>
+      </c>
+      <c r="G16">
+        <f t="shared" ref="G16:P16" si="0">AVERAGE(G6:G15)</f>
+        <v>33.200000000000003</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="0"/>
+        <v>34.1</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="0"/>
+        <v>34.5</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="0"/>
+        <v>35.200000000000003</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="0"/>
+        <v>36.700000000000003</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="0"/>
+        <v>38.799999999999997</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="0"/>
+        <v>42.8</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="0"/>
+        <v>50.7</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="0"/>
+        <v>65.7</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" t="s">
         <v>11</v>
       </c>
@@ -1006,7 +1159,7 @@
         <v>0.39100003242492598</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:18">
       <c r="A18" t="s">
         <v>12</v>
       </c>
@@ -1016,8 +1169,44 @@
       <c r="C18">
         <v>0.234999895095825</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="G18" t="s">
+        <v>27</v>
+      </c>
+      <c r="H18" t="s">
+        <v>28</v>
+      </c>
+      <c r="I18" t="s">
+        <v>29</v>
+      </c>
+      <c r="J18" t="s">
+        <v>30</v>
+      </c>
+      <c r="K18" t="s">
+        <v>31</v>
+      </c>
+      <c r="L18" t="s">
+        <v>32</v>
+      </c>
+      <c r="M18" t="s">
+        <v>33</v>
+      </c>
+      <c r="N18" t="s">
+        <v>34</v>
+      </c>
+      <c r="O18" t="s">
+        <v>35</v>
+      </c>
+      <c r="P18" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>37</v>
+      </c>
+      <c r="R18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" t="s">
         <v>0</v>
       </c>
@@ -1027,8 +1216,44 @@
       <c r="C19" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="G19" t="s">
+        <v>16</v>
+      </c>
+      <c r="H19">
+        <v>100</v>
+      </c>
+      <c r="I19">
+        <v>100</v>
+      </c>
+      <c r="J19">
+        <v>100</v>
+      </c>
+      <c r="K19">
+        <v>100</v>
+      </c>
+      <c r="L19">
+        <v>100</v>
+      </c>
+      <c r="M19">
+        <v>100</v>
+      </c>
+      <c r="N19">
+        <v>100</v>
+      </c>
+      <c r="O19">
+        <v>100</v>
+      </c>
+      <c r="P19">
+        <v>100</v>
+      </c>
+      <c r="Q19">
+        <v>100</v>
+      </c>
+      <c r="R19">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" t="s">
         <v>3</v>
       </c>
@@ -1038,8 +1263,44 @@
       <c r="C20">
         <v>0.169000148773193</v>
       </c>
-    </row>
-    <row r="21" spans="1:3">
+      <c r="G20" t="s">
+        <v>19</v>
+      </c>
+      <c r="H20">
+        <v>88</v>
+      </c>
+      <c r="I20">
+        <v>88</v>
+      </c>
+      <c r="J20">
+        <v>89</v>
+      </c>
+      <c r="K20">
+        <v>89</v>
+      </c>
+      <c r="L20">
+        <v>89</v>
+      </c>
+      <c r="M20">
+        <v>90</v>
+      </c>
+      <c r="N20">
+        <v>90</v>
+      </c>
+      <c r="O20">
+        <v>92</v>
+      </c>
+      <c r="P20">
+        <v>93</v>
+      </c>
+      <c r="Q20">
+        <v>95</v>
+      </c>
+      <c r="R20">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" t="s">
         <v>4</v>
       </c>
@@ -1049,8 +1310,44 @@
       <c r="C21">
         <v>0.382999897003173</v>
       </c>
-    </row>
-    <row r="22" spans="1:3">
+      <c r="G21" t="s">
+        <v>18</v>
+      </c>
+      <c r="H21">
+        <v>82</v>
+      </c>
+      <c r="I21">
+        <v>83</v>
+      </c>
+      <c r="J21">
+        <v>85</v>
+      </c>
+      <c r="K21">
+        <v>86</v>
+      </c>
+      <c r="L21">
+        <v>86</v>
+      </c>
+      <c r="M21">
+        <v>88</v>
+      </c>
+      <c r="N21">
+        <v>89</v>
+      </c>
+      <c r="O21">
+        <v>90</v>
+      </c>
+      <c r="P21">
+        <v>92</v>
+      </c>
+      <c r="Q21">
+        <v>94</v>
+      </c>
+      <c r="R21">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" t="s">
         <v>5</v>
       </c>
@@ -1060,8 +1357,44 @@
       <c r="C22">
         <v>0.187000036239624</v>
       </c>
-    </row>
-    <row r="23" spans="1:3">
+      <c r="G22" t="s">
+        <v>17</v>
+      </c>
+      <c r="H22">
+        <v>56</v>
+      </c>
+      <c r="I22">
+        <v>59</v>
+      </c>
+      <c r="J22">
+        <v>63</v>
+      </c>
+      <c r="K22">
+        <v>65</v>
+      </c>
+      <c r="L22">
+        <v>68</v>
+      </c>
+      <c r="M22">
+        <v>70</v>
+      </c>
+      <c r="N22">
+        <v>73</v>
+      </c>
+      <c r="O22">
+        <v>77</v>
+      </c>
+      <c r="P22">
+        <v>81</v>
+      </c>
+      <c r="Q22">
+        <v>89</v>
+      </c>
+      <c r="R22">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" t="s">
         <v>6</v>
       </c>
@@ -1071,8 +1404,44 @@
       <c r="C23">
         <v>0.156999826431274</v>
       </c>
-    </row>
-    <row r="24" spans="1:3">
+      <c r="G23" t="s">
+        <v>20</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>1</v>
+      </c>
+      <c r="J23">
+        <v>2</v>
+      </c>
+      <c r="K23">
+        <v>2</v>
+      </c>
+      <c r="L23">
+        <v>4</v>
+      </c>
+      <c r="M23">
+        <v>6</v>
+      </c>
+      <c r="N23">
+        <v>10</v>
+      </c>
+      <c r="O23">
+        <v>15</v>
+      </c>
+      <c r="P23">
+        <v>26</v>
+      </c>
+      <c r="Q23">
+        <v>49</v>
+      </c>
+      <c r="R23">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" t="s">
         <v>7</v>
       </c>
@@ -1082,8 +1451,44 @@
       <c r="C24">
         <v>0.102999925613403</v>
       </c>
-    </row>
-    <row r="25" spans="1:3">
+      <c r="G24" t="s">
+        <v>25</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>2</v>
+      </c>
+      <c r="N24">
+        <v>5</v>
+      </c>
+      <c r="O24">
+        <v>12</v>
+      </c>
+      <c r="P24">
+        <v>26</v>
+      </c>
+      <c r="Q24">
+        <v>49</v>
+      </c>
+      <c r="R24">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" t="s">
         <v>8</v>
       </c>
@@ -1093,8 +1498,44 @@
       <c r="C25">
         <v>0.64000010490417403</v>
       </c>
-    </row>
-    <row r="26" spans="1:3">
+      <c r="G25" t="s">
+        <v>24</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>3</v>
+      </c>
+      <c r="N25">
+        <v>6</v>
+      </c>
+      <c r="O25">
+        <v>13</v>
+      </c>
+      <c r="P25">
+        <v>26</v>
+      </c>
+      <c r="Q25">
+        <v>48</v>
+      </c>
+      <c r="R25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18">
       <c r="A26" t="s">
         <v>9</v>
       </c>
@@ -1104,8 +1545,44 @@
       <c r="C26">
         <v>0.40700006484985302</v>
       </c>
-    </row>
-    <row r="27" spans="1:3">
+      <c r="G26" t="s">
+        <v>21</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <v>2</v>
+      </c>
+      <c r="N26">
+        <v>4</v>
+      </c>
+      <c r="O26">
+        <v>8</v>
+      </c>
+      <c r="P26">
+        <v>20</v>
+      </c>
+      <c r="Q26">
+        <v>46</v>
+      </c>
+      <c r="R26">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18">
       <c r="A27" t="s">
         <v>10</v>
       </c>
@@ -1115,8 +1592,44 @@
       <c r="C27">
         <v>5.1999807357788003E-2</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="G27" t="s">
+        <v>22</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>2</v>
+      </c>
+      <c r="N27">
+        <v>5</v>
+      </c>
+      <c r="O27">
+        <v>11</v>
+      </c>
+      <c r="P27">
+        <v>23</v>
+      </c>
+      <c r="Q27">
+        <v>44</v>
+      </c>
+      <c r="R27">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18">
       <c r="A28" t="s">
         <v>11</v>
       </c>
@@ -1126,8 +1639,44 @@
       <c r="C28">
         <v>0.34899997711181602</v>
       </c>
-    </row>
-    <row r="29" spans="1:3">
+      <c r="G28" t="s">
+        <v>23</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>1</v>
+      </c>
+      <c r="J28">
+        <v>2</v>
+      </c>
+      <c r="K28">
+        <v>2</v>
+      </c>
+      <c r="L28">
+        <v>3</v>
+      </c>
+      <c r="M28">
+        <v>4</v>
+      </c>
+      <c r="N28">
+        <v>6</v>
+      </c>
+      <c r="O28">
+        <v>10</v>
+      </c>
+      <c r="P28">
+        <v>20</v>
+      </c>
+      <c r="Q28">
+        <v>43</v>
+      </c>
+      <c r="R28">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18">
       <c r="A29" t="s">
         <v>12</v>
       </c>
@@ -1138,7 +1687,7 @@
         <v>0.25500011444091703</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:18">
       <c r="A30" t="s">
         <v>0</v>
       </c>
@@ -1149,7 +1698,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:18">
       <c r="A31" t="s">
         <v>3</v>
       </c>
@@ -1160,7 +1709,7 @@
         <v>0.15700006484985299</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:18">
       <c r="A32" t="s">
         <v>4</v>
       </c>
@@ -1171,7 +1720,7 @@
         <v>0.41699981689453097</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:18">
       <c r="A33" t="s">
         <v>5</v>
       </c>
@@ -1181,8 +1730,44 @@
       <c r="C33">
         <v>0.164000034332275</v>
       </c>
-    </row>
-    <row r="34" spans="1:3">
+      <c r="E33" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="F33" s="2">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="G33" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="H33" s="3">
+        <v>0.65</v>
+      </c>
+      <c r="I33" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="J33" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="K33" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="L33" s="3">
+        <v>0.85</v>
+      </c>
+      <c r="M33" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="N33" s="3">
+        <v>0.95</v>
+      </c>
+      <c r="O33" s="3">
+        <v>1</v>
+      </c>
+      <c r="P33" s="1"/>
+      <c r="Q33" s="1"/>
+      <c r="R33" s="1"/>
+    </row>
+    <row r="34" spans="1:18">
       <c r="A34" t="s">
         <v>6</v>
       </c>
@@ -1192,8 +1777,48 @@
       <c r="C34">
         <v>0.171999931335449</v>
       </c>
-    </row>
-    <row r="35" spans="1:3">
+      <c r="E34" s="2">
+        <f>AVERAGE(E35:E64)</f>
+        <v>0.28216663996378549</v>
+      </c>
+      <c r="F34" s="2">
+        <f t="shared" ref="F34:I34" si="1">AVERAGE(F35:F64)</f>
+        <v>0.21386666297912565</v>
+      </c>
+      <c r="G34" s="2">
+        <f t="shared" si="1"/>
+        <v>0.2123000224431352</v>
+      </c>
+      <c r="H34" s="2">
+        <f t="shared" si="1"/>
+        <v>0.22346668243408169</v>
+      </c>
+      <c r="I34" s="2">
+        <f t="shared" si="1"/>
+        <v>0.21486667792002326</v>
+      </c>
+      <c r="J34" s="2">
+        <f>AVERAGE(J35:J64)</f>
+        <v>0.22749998569488494</v>
+      </c>
+      <c r="K34" s="2">
+        <f t="shared" ref="K34:N34" si="2">AVERAGE(K35:K64)</f>
+        <v>0.22610003948211632</v>
+      </c>
+      <c r="L34" s="2">
+        <f t="shared" si="2"/>
+        <v>0.21356666882832809</v>
+      </c>
+      <c r="M34" s="2">
+        <f t="shared" si="2"/>
+        <v>0.22003332773844367</v>
+      </c>
+      <c r="N34" s="2">
+        <f t="shared" si="2"/>
+        <v>0.21556668281555147</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18">
       <c r="A35" t="s">
         <v>7</v>
       </c>
@@ -1203,8 +1828,38 @@
       <c r="C35">
         <v>9.4999790191650293E-2</v>
       </c>
-    </row>
-    <row r="36" spans="1:3">
+      <c r="E35">
+        <v>0.171999931335449</v>
+      </c>
+      <c r="F35">
+        <v>0.16600012779235801</v>
+      </c>
+      <c r="G35">
+        <v>0.16499996185302701</v>
+      </c>
+      <c r="H35">
+        <v>0.16199994087219199</v>
+      </c>
+      <c r="I35">
+        <v>0.16600012779235801</v>
+      </c>
+      <c r="J35">
+        <v>0.171999931335449</v>
+      </c>
+      <c r="K35">
+        <v>0.156999826431274</v>
+      </c>
+      <c r="L35">
+        <v>0.15599989891052199</v>
+      </c>
+      <c r="M35">
+        <v>0.17700004577636699</v>
+      </c>
+      <c r="N35">
+        <v>0.17300009727478</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18">
       <c r="A36" t="s">
         <v>8</v>
       </c>
@@ -1214,8 +1869,38 @@
       <c r="C36">
         <v>0.61700010299682595</v>
       </c>
-    </row>
-    <row r="37" spans="1:3">
+      <c r="E36">
+        <v>0.35899996757507302</v>
+      </c>
+      <c r="F36">
+        <v>0.21799993515014601</v>
+      </c>
+      <c r="G36">
+        <v>0.20300006866455</v>
+      </c>
+      <c r="H36">
+        <v>0.21000003814697199</v>
+      </c>
+      <c r="I36">
+        <v>0.212000131607055</v>
+      </c>
+      <c r="J36">
+        <v>0.21900010108947701</v>
+      </c>
+      <c r="K36">
+        <v>0.21500015258788999</v>
+      </c>
+      <c r="L36">
+        <v>0.21000003814697199</v>
+      </c>
+      <c r="M36">
+        <v>0.21900010108947701</v>
+      </c>
+      <c r="N36">
+        <v>0.21799993515014601</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18">
       <c r="A37" t="s">
         <v>9</v>
       </c>
@@ -1225,8 +1910,38 @@
       <c r="C37">
         <v>0.32999992370605402</v>
       </c>
-    </row>
-    <row r="38" spans="1:3">
+      <c r="E37">
+        <v>0.18799996376037501</v>
+      </c>
+      <c r="F37">
+        <v>0.15999984741210899</v>
+      </c>
+      <c r="G37">
+        <v>0.15599989891052199</v>
+      </c>
+      <c r="H37">
+        <v>0.17299985885620101</v>
+      </c>
+      <c r="I37">
+        <v>0.17100000381469699</v>
+      </c>
+      <c r="J37">
+        <v>0.17000007629394501</v>
+      </c>
+      <c r="K37">
+        <v>0.156999826431274</v>
+      </c>
+      <c r="L37">
+        <v>0.157999992370605</v>
+      </c>
+      <c r="M37">
+        <v>0.164000034332275</v>
+      </c>
+      <c r="N37">
+        <v>0.15600013732910101</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18">
       <c r="A38" t="s">
         <v>10</v>
       </c>
@@ -1236,8 +1951,38 @@
       <c r="C38">
         <v>6.2000036239624003E-2</v>
       </c>
-    </row>
-    <row r="39" spans="1:3">
+      <c r="E38">
+        <v>0.171999931335449</v>
+      </c>
+      <c r="F38">
+        <v>0.17100000381469699</v>
+      </c>
+      <c r="G38">
+        <v>0.169000148773193</v>
+      </c>
+      <c r="H38">
+        <v>0.15700006484985299</v>
+      </c>
+      <c r="I38">
+        <v>0.16899991035461401</v>
+      </c>
+      <c r="J38">
+        <v>0.15599989891052199</v>
+      </c>
+      <c r="K38">
+        <v>0.177999973297119</v>
+      </c>
+      <c r="L38">
+        <v>0.16100001335144001</v>
+      </c>
+      <c r="M38">
+        <v>0.17300009727478</v>
+      </c>
+      <c r="N38">
+        <v>0.17100000381469699</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18">
       <c r="A39" t="s">
         <v>11</v>
       </c>
@@ -1247,8 +1992,38 @@
       <c r="C39">
         <v>0.238999843597412</v>
       </c>
-    </row>
-    <row r="40" spans="1:3">
+      <c r="E39">
+        <v>9.4000101089477497E-2</v>
+      </c>
+      <c r="F39">
+        <v>0.109999895095825</v>
+      </c>
+      <c r="G39">
+        <v>9.3999862670898396E-2</v>
+      </c>
+      <c r="H39">
+        <v>9.4000101089477497E-2</v>
+      </c>
+      <c r="I39">
+        <v>0.11199998855590799</v>
+      </c>
+      <c r="J39">
+        <v>9.8000049591064398E-2</v>
+      </c>
+      <c r="K39">
+        <v>0.114000082015991</v>
+      </c>
+      <c r="L39">
+        <v>9.3999862670898396E-2</v>
+      </c>
+      <c r="M39">
+        <v>0.109999895095825</v>
+      </c>
+      <c r="N39">
+        <v>0.118000030517578</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18">
       <c r="A40" t="s">
         <v>12</v>
       </c>
@@ -1258,8 +2033,38 @@
       <c r="C40">
         <v>0.226000070571899</v>
       </c>
-    </row>
-    <row r="41" spans="1:3">
+      <c r="E40">
+        <v>0.61199998855590798</v>
+      </c>
+      <c r="F40">
+        <v>0.61000013351440396</v>
+      </c>
+      <c r="G40">
+        <v>0.61199998855590798</v>
+      </c>
+      <c r="H40">
+        <v>0.607000112533569</v>
+      </c>
+      <c r="I40">
+        <v>0.62600016593933105</v>
+      </c>
+      <c r="J40">
+        <v>0.62400007247924805</v>
+      </c>
+      <c r="K40">
+        <v>0.61400008201599099</v>
+      </c>
+      <c r="L40">
+        <v>0.60000014305114702</v>
+      </c>
+      <c r="M40">
+        <v>0.61099982261657704</v>
+      </c>
+      <c r="N40">
+        <v>0.61700010299682595</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18">
       <c r="A41" t="s">
         <v>0</v>
       </c>
@@ -1269,8 +2074,38 @@
       <c r="C41" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="42" spans="1:3">
+      <c r="E41">
+        <v>0.98299980163574197</v>
+      </c>
+      <c r="F41">
+        <v>0.32899999618530201</v>
+      </c>
+      <c r="G41">
+        <v>0.33299994468688898</v>
+      </c>
+      <c r="H41">
+        <v>0.32200002670288003</v>
+      </c>
+      <c r="I41">
+        <v>0.32800006866455</v>
+      </c>
+      <c r="J41">
+        <v>0.32799983024597101</v>
+      </c>
+      <c r="K41">
+        <v>0.33300018310546797</v>
+      </c>
+      <c r="L41">
+        <v>0.33299994468688898</v>
+      </c>
+      <c r="M41">
+        <v>0.347000122070312</v>
+      </c>
+      <c r="N41">
+        <v>0.33899998664855902</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18">
       <c r="A42" t="s">
         <v>3</v>
       </c>
@@ -1280,8 +2115,38 @@
       <c r="C42">
         <v>0.16600012779235801</v>
       </c>
-    </row>
-    <row r="43" spans="1:3">
+      <c r="E42">
+        <v>7.8000068664550698E-2</v>
+      </c>
+      <c r="F42">
+        <v>6.8000078201293904E-2</v>
+      </c>
+      <c r="G42">
+        <v>6.2000036239624003E-2</v>
+      </c>
+      <c r="H42">
+        <v>6.8000078201293904E-2</v>
+      </c>
+      <c r="I42">
+        <v>6.1999797821044901E-2</v>
+      </c>
+      <c r="J42">
+        <v>6.2000036239624003E-2</v>
+      </c>
+      <c r="K42">
+        <v>6.2999963760375893E-2</v>
+      </c>
+      <c r="L42">
+        <v>6.2999963760375893E-2</v>
+      </c>
+      <c r="M42">
+        <v>6.2000036239624003E-2</v>
+      </c>
+      <c r="N42">
+        <v>7.5999975204467704E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18">
       <c r="A43" t="s">
         <v>4</v>
       </c>
@@ -1291,8 +2156,38 @@
       <c r="C43">
         <v>0.21799993515014601</v>
       </c>
-    </row>
-    <row r="44" spans="1:3">
+      <c r="E43">
+        <v>0.39100003242492598</v>
+      </c>
+      <c r="F43">
+        <v>0.21999979019165</v>
+      </c>
+      <c r="G43">
+        <v>0.216000080108642</v>
+      </c>
+      <c r="H43">
+        <v>0.22800016403198201</v>
+      </c>
+      <c r="I43">
+        <v>0.21900010108947701</v>
+      </c>
+      <c r="J43">
+        <v>0.19700002670288</v>
+      </c>
+      <c r="K43">
+        <v>0.23500013351440399</v>
+      </c>
+      <c r="L43">
+        <v>0.21399998664855899</v>
+      </c>
+      <c r="M43">
+        <v>0.22800016403198201</v>
+      </c>
+      <c r="N43">
+        <v>0.215999841690063</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18">
       <c r="A44" t="s">
         <v>5</v>
       </c>
@@ -1302,8 +2197,38 @@
       <c r="C44">
         <v>0.15999984741210899</v>
       </c>
-    </row>
-    <row r="45" spans="1:3">
+      <c r="E44">
+        <v>0.234999895095825</v>
+      </c>
+      <c r="F44">
+        <v>0.10300016403198201</v>
+      </c>
+      <c r="G44">
+        <v>0.130000114440917</v>
+      </c>
+      <c r="H44">
+        <v>0.22500014305114699</v>
+      </c>
+      <c r="I44">
+        <v>0.10899996757507301</v>
+      </c>
+      <c r="J44">
+        <v>9.3999862670898396E-2</v>
+      </c>
+      <c r="K44">
+        <v>0.20300006866455</v>
+      </c>
+      <c r="L44">
+        <v>9.3999862670898396E-2</v>
+      </c>
+      <c r="M44">
+        <v>0.187000036239624</v>
+      </c>
+      <c r="N44">
+        <v>0.111000061035156</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18">
       <c r="A45" t="s">
         <v>6</v>
       </c>
@@ -1313,8 +2238,38 @@
       <c r="C45">
         <v>0.17100000381469699</v>
       </c>
-    </row>
-    <row r="46" spans="1:3">
+      <c r="E45">
+        <v>0.169000148773193</v>
+      </c>
+      <c r="F45">
+        <v>0.15700006484985299</v>
+      </c>
+      <c r="G45">
+        <v>0.15599989891052199</v>
+      </c>
+      <c r="H45">
+        <v>0.240000009536743</v>
+      </c>
+      <c r="I45">
+        <v>0.171999931335449</v>
+      </c>
+      <c r="J45">
+        <v>0.18499994277954099</v>
+      </c>
+      <c r="K45">
+        <v>0.16499996185302701</v>
+      </c>
+      <c r="L45">
+        <v>0.15599989891052199</v>
+      </c>
+      <c r="M45">
+        <v>0.162999868392944</v>
+      </c>
+      <c r="N45">
+        <v>0.17300009727478</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18">
       <c r="A46" t="s">
         <v>7</v>
       </c>
@@ -1324,8 +2279,38 @@
       <c r="C46">
         <v>0.109999895095825</v>
       </c>
-    </row>
-    <row r="47" spans="1:3">
+      <c r="E46">
+        <v>0.382999897003173</v>
+      </c>
+      <c r="F46">
+        <v>0.228999853134155</v>
+      </c>
+      <c r="G46">
+        <v>0.20299983024597101</v>
+      </c>
+      <c r="H46">
+        <v>0.21900010108947701</v>
+      </c>
+      <c r="I46">
+        <v>0.22299981117248499</v>
+      </c>
+      <c r="J46">
+        <v>0.20300006866455</v>
+      </c>
+      <c r="K46">
+        <v>0.20000004768371499</v>
+      </c>
+      <c r="L46">
+        <v>0.220999956130981</v>
+      </c>
+      <c r="M46">
+        <v>0.20799994468688901</v>
+      </c>
+      <c r="N46">
+        <v>0.22000002861022899</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18">
       <c r="A47" t="s">
         <v>8</v>
       </c>
@@ -1335,8 +2320,38 @@
       <c r="C47">
         <v>0.61000013351440396</v>
       </c>
-    </row>
-    <row r="48" spans="1:3">
+      <c r="E47">
+        <v>0.187000036239624</v>
+      </c>
+      <c r="F47">
+        <v>0.16100001335144001</v>
+      </c>
+      <c r="G47">
+        <v>0.15700006484985299</v>
+      </c>
+      <c r="H47">
+        <v>0.15700006484985299</v>
+      </c>
+      <c r="I47">
+        <v>0.15700006484985299</v>
+      </c>
+      <c r="J47">
+        <v>0.16499996185302701</v>
+      </c>
+      <c r="K47">
+        <v>0.154000043869018</v>
+      </c>
+      <c r="L47">
+        <v>0.16499996185302701</v>
+      </c>
+      <c r="M47">
+        <v>0.16199994087219199</v>
+      </c>
+      <c r="N47">
+        <v>0.15700006484985299</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18">
       <c r="A48" t="s">
         <v>9</v>
       </c>
@@ -1346,8 +2361,38 @@
       <c r="C48">
         <v>0.32899999618530201</v>
       </c>
-    </row>
-    <row r="49" spans="1:3">
+      <c r="E48">
+        <v>0.156999826431274</v>
+      </c>
+      <c r="F48">
+        <v>0.166999816894531</v>
+      </c>
+      <c r="G48">
+        <v>0.15499997138977001</v>
+      </c>
+      <c r="H48">
+        <v>0.15600013732910101</v>
+      </c>
+      <c r="I48">
+        <v>0.177999973297119</v>
+      </c>
+      <c r="J48">
+        <v>0.17200016975402799</v>
+      </c>
+      <c r="K48">
+        <v>0.15600013732910101</v>
+      </c>
+      <c r="L48">
+        <v>0.171999931335449</v>
+      </c>
+      <c r="M48">
+        <v>0.171999931335449</v>
+      </c>
+      <c r="N48">
+        <v>0.17200016975402799</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14">
       <c r="A49" t="s">
         <v>10</v>
       </c>
@@ -1357,8 +2402,38 @@
       <c r="C49">
         <v>6.8000078201293904E-2</v>
       </c>
-    </row>
-    <row r="50" spans="1:3">
+      <c r="E49">
+        <v>0.102999925613403</v>
+      </c>
+      <c r="F49">
+        <v>0.109000205993652</v>
+      </c>
+      <c r="G49">
+        <v>9.3000173568725503E-2</v>
+      </c>
+      <c r="H49">
+        <v>0.118000030517578</v>
+      </c>
+      <c r="I49">
+        <v>0.113999843597412</v>
+      </c>
+      <c r="J49">
+        <v>0.10899996757507301</v>
+      </c>
+      <c r="K49">
+        <v>9.2999935150146401E-2</v>
+      </c>
+      <c r="L49">
+        <v>0.109000205993652</v>
+      </c>
+      <c r="M49">
+        <v>0.105999946594238</v>
+      </c>
+      <c r="N49">
+        <v>0.11599993705749501</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14">
       <c r="A50" t="s">
         <v>11</v>
       </c>
@@ -1368,8 +2443,38 @@
       <c r="C50">
         <v>0.21999979019165</v>
       </c>
-    </row>
-    <row r="51" spans="1:3">
+      <c r="E50">
+        <v>0.64000010490417403</v>
+      </c>
+      <c r="F50">
+        <v>0.61299991607666005</v>
+      </c>
+      <c r="G50">
+        <v>0.64999985694885198</v>
+      </c>
+      <c r="H50">
+        <v>0.60399985313415505</v>
+      </c>
+      <c r="I50">
+        <v>0.62100005149841297</v>
+      </c>
+      <c r="J50">
+        <v>0.654000043869018</v>
+      </c>
+      <c r="K50">
+        <v>0.61700010299682595</v>
+      </c>
+      <c r="L50">
+        <v>0.61500000953674305</v>
+      </c>
+      <c r="M50">
+        <v>0.616000175476074</v>
+      </c>
+      <c r="N50">
+        <v>0.62200021743774403</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14">
       <c r="A51" t="s">
         <v>12</v>
       </c>
@@ -1379,8 +2484,38 @@
       <c r="C51">
         <v>0.10300016403198201</v>
       </c>
-    </row>
-    <row r="52" spans="1:3">
+      <c r="E51">
+        <v>0.40700006484985302</v>
+      </c>
+      <c r="F51">
+        <v>0.32899999618530201</v>
+      </c>
+      <c r="G51">
+        <v>0.32500004768371499</v>
+      </c>
+      <c r="H51">
+        <v>0.33800005912780701</v>
+      </c>
+      <c r="I51">
+        <v>0.35800004005432101</v>
+      </c>
+      <c r="J51">
+        <v>0.36999988555908198</v>
+      </c>
+      <c r="K51">
+        <v>0.33899998664855902</v>
+      </c>
+      <c r="L51">
+        <v>0.33400011062621998</v>
+      </c>
+      <c r="M51">
+        <v>0.33799982070922802</v>
+      </c>
+      <c r="N51">
+        <v>0.33099985122680597</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14">
       <c r="A52" t="s">
         <v>0</v>
       </c>
@@ -1390,8 +2525,38 @@
       <c r="C52" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="53" spans="1:3">
+      <c r="E52">
+        <v>5.1999807357788003E-2</v>
+      </c>
+      <c r="F52">
+        <v>6.2000036239624003E-2</v>
+      </c>
+      <c r="G52">
+        <v>6.2000036239624003E-2</v>
+      </c>
+      <c r="H52">
+        <v>6.2000036239624003E-2</v>
+      </c>
+      <c r="I52">
+        <v>6.2000036239624003E-2</v>
+      </c>
+      <c r="J52">
+        <v>7.7999830245971596E-2</v>
+      </c>
+      <c r="K52">
+        <v>6.2999963760375893E-2</v>
+      </c>
+      <c r="L52">
+        <v>6.2999963760375893E-2</v>
+      </c>
+      <c r="M52">
+        <v>6.2000036239624003E-2</v>
+      </c>
+      <c r="N52">
+        <v>6.3000202178954995E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14">
       <c r="A53" t="s">
         <v>3</v>
       </c>
@@ -1401,8 +2566,38 @@
       <c r="C53">
         <v>0.15700006484985299</v>
       </c>
-    </row>
-    <row r="54" spans="1:3">
+      <c r="E53">
+        <v>0.34899997711181602</v>
+      </c>
+      <c r="F53">
+        <v>0.200999975204467</v>
+      </c>
+      <c r="G53">
+        <v>0.216000080108642</v>
+      </c>
+      <c r="H53">
+        <v>0.24199986457824699</v>
+      </c>
+      <c r="I53">
+        <v>0.218000173568725</v>
+      </c>
+      <c r="J53">
+        <v>0.25</v>
+      </c>
+      <c r="K53">
+        <v>0.23399996757507299</v>
+      </c>
+      <c r="L53">
+        <v>0.22000002861022899</v>
+      </c>
+      <c r="M53">
+        <v>0.201999902725219</v>
+      </c>
+      <c r="N53">
+        <v>0.20799994468688901</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14">
       <c r="A54" t="s">
         <v>4</v>
       </c>
@@ -1412,8 +2607,38 @@
       <c r="C54">
         <v>0.228999853134155</v>
       </c>
-    </row>
-    <row r="55" spans="1:3">
+      <c r="E54">
+        <v>0.25500011444091703</v>
+      </c>
+      <c r="F54">
+        <v>0.10899996757507301</v>
+      </c>
+      <c r="G54">
+        <v>9.5999956130981404E-2</v>
+      </c>
+      <c r="H54">
+        <v>0.20799994468688901</v>
+      </c>
+      <c r="I54">
+        <v>6.2999963760375893E-2</v>
+      </c>
+      <c r="J54">
+        <v>0.24399995803832999</v>
+      </c>
+      <c r="K54">
+        <v>0.212000131607055</v>
+      </c>
+      <c r="L54">
+        <v>0.13200020790100001</v>
+      </c>
+      <c r="M54">
+        <v>7.5000047683715806E-2</v>
+      </c>
+      <c r="N54">
+        <v>7.5000047683715806E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14">
       <c r="A55" t="s">
         <v>5</v>
       </c>
@@ -1423,8 +2648,35 @@
       <c r="C55">
         <v>0.16100001335144001</v>
       </c>
-    </row>
-    <row r="56" spans="1:3">
+      <c r="E55">
+        <v>0.15700006484985299</v>
+      </c>
+      <c r="F55">
+        <v>0.17100000381469699</v>
+      </c>
+      <c r="G55">
+        <v>0.17300009727478</v>
+      </c>
+      <c r="H55">
+        <v>0.164000034332275</v>
+      </c>
+      <c r="I55">
+        <v>0.16899991035461401</v>
+      </c>
+      <c r="K55">
+        <v>0.17100000381469699</v>
+      </c>
+      <c r="L55">
+        <v>0.167999982833862</v>
+      </c>
+      <c r="M55">
+        <v>0.16700005531310999</v>
+      </c>
+      <c r="N55">
+        <v>0.171999931335449</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14">
       <c r="A56" t="s">
         <v>6</v>
       </c>
@@ -1434,8 +2686,35 @@
       <c r="C56">
         <v>0.166999816894531</v>
       </c>
-    </row>
-    <row r="57" spans="1:3">
+      <c r="E56">
+        <v>0.41699981689453097</v>
+      </c>
+      <c r="F56">
+        <v>0.20000004768371499</v>
+      </c>
+      <c r="G56">
+        <v>0.21000003814697199</v>
+      </c>
+      <c r="H56">
+        <v>0.216000080108642</v>
+      </c>
+      <c r="I56">
+        <v>0.217000007629394</v>
+      </c>
+      <c r="K56">
+        <v>0.21900010108947701</v>
+      </c>
+      <c r="L56">
+        <v>0.20300006866455</v>
+      </c>
+      <c r="M56">
+        <v>0.21199989318847601</v>
+      </c>
+      <c r="N56">
+        <v>0.22399997711181599</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14">
       <c r="A57" t="s">
         <v>7</v>
       </c>
@@ -1445,8 +2724,35 @@
       <c r="C57">
         <v>0.109000205993652</v>
       </c>
-    </row>
-    <row r="58" spans="1:3">
+      <c r="E57">
+        <v>0.164000034332275</v>
+      </c>
+      <c r="F57">
+        <v>0.16899991035461401</v>
+      </c>
+      <c r="G57">
+        <v>0.17200016975402799</v>
+      </c>
+      <c r="H57">
+        <v>0.17000007629394501</v>
+      </c>
+      <c r="I57">
+        <v>0.16700005531310999</v>
+      </c>
+      <c r="K57">
+        <v>0.15599989891052199</v>
+      </c>
+      <c r="L57">
+        <v>0.177999973297119</v>
+      </c>
+      <c r="M57">
+        <v>0.174000024795532</v>
+      </c>
+      <c r="N57">
+        <v>0.15600013732910101</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14">
       <c r="A58" t="s">
         <v>8</v>
       </c>
@@ -1456,8 +2762,35 @@
       <c r="C58">
         <v>0.61299991607666005</v>
       </c>
-    </row>
-    <row r="59" spans="1:3">
+      <c r="E58">
+        <v>0.171999931335449</v>
+      </c>
+      <c r="F58">
+        <v>0.16499996185302701</v>
+      </c>
+      <c r="G58">
+        <v>0.15600013732910101</v>
+      </c>
+      <c r="H58">
+        <v>0.171999931335449</v>
+      </c>
+      <c r="I58">
+        <v>0.15700006484985299</v>
+      </c>
+      <c r="K58">
+        <v>0.15600013732910101</v>
+      </c>
+      <c r="L58">
+        <v>0.17200016975402799</v>
+      </c>
+      <c r="M58">
+        <v>0.20499992370605399</v>
+      </c>
+      <c r="N58">
+        <v>0.17299985885620101</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14">
       <c r="A59" t="s">
         <v>9</v>
       </c>
@@ -1467,8 +2800,35 @@
       <c r="C59">
         <v>0.32899999618530201</v>
       </c>
-    </row>
-    <row r="60" spans="1:3">
+      <c r="E59">
+        <v>9.4999790191650293E-2</v>
+      </c>
+      <c r="F59">
+        <v>0.107000112533569</v>
+      </c>
+      <c r="G59">
+        <v>9.3000173568725503E-2</v>
+      </c>
+      <c r="H59">
+        <v>9.3000173568725503E-2</v>
+      </c>
+      <c r="I59">
+        <v>0.10899996757507301</v>
+      </c>
+      <c r="K59">
+        <v>9.4000101089477497E-2</v>
+      </c>
+      <c r="L59">
+        <v>0.11000013351440401</v>
+      </c>
+      <c r="M59">
+        <v>0.125</v>
+      </c>
+      <c r="N59">
+        <v>0.11000013351440401</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14">
       <c r="A60" t="s">
         <v>10</v>
       </c>
@@ -1478,8 +2838,35 @@
       <c r="C60">
         <v>6.2000036239624003E-2</v>
       </c>
-    </row>
-    <row r="61" spans="1:3">
+      <c r="E60">
+        <v>0.61700010299682595</v>
+      </c>
+      <c r="F60">
+        <v>0.61199998855590798</v>
+      </c>
+      <c r="G60">
+        <v>0.60299992561340299</v>
+      </c>
+      <c r="H60">
+        <v>0.59899997711181596</v>
+      </c>
+      <c r="I60">
+        <v>0.595999956130981</v>
+      </c>
+      <c r="K60">
+        <v>0.61500000953674305</v>
+      </c>
+      <c r="L60">
+        <v>0.60199999809265103</v>
+      </c>
+      <c r="M60">
+        <v>0.61400008201599099</v>
+      </c>
+      <c r="N60">
+        <v>0.61100006103515603</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14">
       <c r="A61" t="s">
         <v>11</v>
       </c>
@@ -1489,8 +2876,35 @@
       <c r="C61">
         <v>0.200999975204467</v>
       </c>
-    </row>
-    <row r="62" spans="1:3">
+      <c r="E61">
+        <v>0.32999992370605402</v>
+      </c>
+      <c r="F61">
+        <v>0.33799982070922802</v>
+      </c>
+      <c r="G61">
+        <v>0.34500002861022899</v>
+      </c>
+      <c r="H61">
+        <v>0.32799983024597101</v>
+      </c>
+      <c r="I61">
+        <v>0.33300018310546797</v>
+      </c>
+      <c r="K61">
+        <v>0.33300018310546797</v>
+      </c>
+      <c r="L61">
+        <v>0.32899999618530201</v>
+      </c>
+      <c r="M61">
+        <v>0.337000131607055</v>
+      </c>
+      <c r="N61">
+        <v>0.32999992370605402</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14">
       <c r="A62" t="s">
         <v>12</v>
       </c>
@@ -1500,8 +2914,35 @@
       <c r="C62">
         <v>0.10899996757507301</v>
       </c>
-    </row>
-    <row r="63" spans="1:3">
+      <c r="E62">
+        <v>6.2000036239624003E-2</v>
+      </c>
+      <c r="F62">
+        <v>6.2999963760375893E-2</v>
+      </c>
+      <c r="G62">
+        <v>6.2000036239624003E-2</v>
+      </c>
+      <c r="H62">
+        <v>6.2999963760375893E-2</v>
+      </c>
+      <c r="I62">
+        <v>6.2999963760375893E-2</v>
+      </c>
+      <c r="K62">
+        <v>7.30001926422119E-2</v>
+      </c>
+      <c r="L62">
+        <v>6.1999797821044901E-2</v>
+      </c>
+      <c r="M62">
+        <v>6.1999797821044901E-2</v>
+      </c>
+      <c r="N62">
+        <v>7.7999830245971596E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14">
       <c r="A63" t="s">
         <v>0</v>
       </c>
@@ -1511,8 +2952,35 @@
       <c r="C63" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="64" spans="1:3">
+      <c r="E63">
+        <v>0.238999843597412</v>
+      </c>
+      <c r="F63">
+        <v>0.21900010108947701</v>
+      </c>
+      <c r="G63">
+        <v>0.20900011062622001</v>
+      </c>
+      <c r="H63">
+        <v>0.214999914169311</v>
+      </c>
+      <c r="I63">
+        <v>0.20399999618530201</v>
+      </c>
+      <c r="K63">
+        <v>0.240000009536743</v>
+      </c>
+      <c r="L63">
+        <v>0.210999965667724</v>
+      </c>
+      <c r="M63">
+        <v>0.210999965667724</v>
+      </c>
+      <c r="N63">
+        <v>0.20300006866455</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14">
       <c r="A64" t="s">
         <v>3</v>
       </c>
@@ -1521,6 +2989,33 @@
       </c>
       <c r="C64">
         <v>0.17100000381469699</v>
+      </c>
+      <c r="E64">
+        <v>0.226000070571899</v>
+      </c>
+      <c r="F64">
+        <v>8.0000162124633706E-2</v>
+      </c>
+      <c r="G64">
+        <v>9.2999935150146401E-2</v>
+      </c>
+      <c r="H64">
+        <v>9.3999862670898396E-2</v>
+      </c>
+      <c r="I64">
+        <v>9.1000080108642495E-2</v>
+      </c>
+      <c r="K64">
+        <v>0.22399997711181599</v>
+      </c>
+      <c r="L64">
+        <v>0.10199999809265101</v>
+      </c>
+      <c r="M64">
+        <v>0.11199998855590799</v>
+      </c>
+      <c r="N64">
+        <v>7.7999830245971596E-2</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -4407,6 +5902,10 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
 
